--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1298040.257834637</v>
+        <v>-1299938.489938761</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14963373.64651477</v>
+        <v>14963373.64651476</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>299.9372868628164</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89.85217623098832</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="4">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>8.146044577170914</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>51.77176167778964</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>166.6344015558573</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>85.68750809617202</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>223.0511977961117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>25.12149577808984</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>173.7001491014863</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>285.5063843555927</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>150.476679493519</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>126.5467427872845</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1427,7 +1427,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>137.6981639347273</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>76.12481380943443</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365921</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>75.56458875369719</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>148.9042139439608</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>83.2345751060159</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>82.22536886820545</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>146.2787299119459</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>117.9242040559341</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>207.5428010623605</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>115.2353760502669</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>8.876262812565749</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>224.3295762725741</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692825</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287491</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
         <v>218.1054622689367</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415208</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3724,7 +3724,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y40" t="n">
         <v>150.4527632224541</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485.384143294141</v>
+        <v>847.8148076117927</v>
       </c>
       <c r="C2" t="n">
-        <v>1485.384143294141</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D2" t="n">
-        <v>1127.118444687391</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4334,46 +4334,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990286</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
         <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628377</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W2" t="n">
-        <v>1871.983983358263</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X2" t="n">
-        <v>1871.983983358263</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y2" t="n">
-        <v>1871.983983358263</v>
+        <v>1150.78176403888</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4428,22 +4428,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.0844032584858</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C4" t="n">
-        <v>210.0844032584858</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4516,22 +4516,22 @@
         <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>646.4173562946123</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>646.4173562946123</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="V4" t="n">
-        <v>391.7328680887255</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="W4" t="n">
-        <v>391.7328680887255</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="X4" t="n">
-        <v>391.7328680887255</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="Y4" t="n">
-        <v>391.7328680887255</v>
+        <v>530.3944877309076</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.566937845283</v>
+        <v>1408.083041312479</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>1039.120524372067</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1039.120524372067</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1039.120524372067</v>
       </c>
       <c r="F5" t="n">
         <v>952.5674858910851</v>
@@ -4562,16 +4562,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304456</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304456</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304456</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>2302.336936304456</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X5" t="n">
-        <v>1928.871178043376</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y5" t="n">
-        <v>1703.566937845283</v>
+        <v>1794.6828813766</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,19 +4641,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>275.0913939262626</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>124.9747545139269</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>124.9747545139269</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406185</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406185</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="X7" t="n">
-        <v>404.5276295785111</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>444.0275768541695</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1469.273141255051</v>
+        <v>1156.179761166176</v>
       </c>
       <c r="C8" t="n">
-        <v>1100.31062431464</v>
+        <v>1156.179761166176</v>
       </c>
       <c r="D8" t="n">
-        <v>742.0449257078892</v>
+        <v>1156.179761166176</v>
       </c>
       <c r="E8" t="n">
-        <v>356.256673109645</v>
+        <v>770.3915085679319</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>359.4056037783243</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>1859.412473230863</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X8" t="n">
-        <v>1859.412473230863</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y8" t="n">
-        <v>1469.273141255051</v>
+        <v>1542.779601230298</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4887,43 +4887,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>600.3039914920054</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>600.3039914920054</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="W10" t="n">
-        <v>149.5382038240418</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="X10" t="n">
-        <v>149.5382038240418</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y10" t="n">
-        <v>149.5382038240418</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>531.1091870201119</v>
+        <v>674.6944526764913</v>
       </c>
       <c r="C13" t="n">
-        <v>531.1091870201119</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,49 +5200,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688062</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799354</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471183</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1111.027405712618</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1111.027405712618</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570736</v>
+        <v>856.3429175067311</v>
       </c>
       <c r="W13" t="n">
-        <v>531.1091870201119</v>
+        <v>856.3429175067311</v>
       </c>
       <c r="X13" t="n">
-        <v>531.1091870201119</v>
+        <v>856.3429175067311</v>
       </c>
       <c r="Y13" t="n">
-        <v>531.1091870201119</v>
+        <v>856.3429175067311</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>545.8631874464246</v>
+        <v>604.4337416462789</v>
       </c>
       <c r="C16" t="n">
-        <v>376.9270045185177</v>
+        <v>435.497558718372</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9270045185177</v>
+        <v>435.497558718372</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>948.3042314201945</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W16" t="n">
-        <v>948.3042314201945</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X16" t="n">
-        <v>948.3042314201945</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y16" t="n">
-        <v>727.5116522766643</v>
+        <v>786.0822064765186</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,13 +5525,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>711.3743239205529</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="C19" t="n">
-        <v>542.438140992646</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="D19" t="n">
-        <v>542.438140992646</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W19" t="n">
-        <v>1160.1564539621</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X19" t="n">
-        <v>932.166903064083</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="Y19" t="n">
-        <v>711.3743239205529</v>
+        <v>674.9567375132466</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,19 +5826,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147083</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>940.1463453738954</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
         <v>2051.878056918008</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>531.3977182706323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>531.3977182706323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>531.3977182706323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706323</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706323</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X22" t="n">
-        <v>531.3977182706323</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y22" t="n">
-        <v>531.3977182706323</v>
+        <v>244.9733843006353</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,22 +5972,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514088</v>
@@ -5996,43 +5996,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701563</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766205</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1564.731711769082</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1894.594339433115</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2174.134404651812</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2379.156885434022</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609669</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V25" t="n">
-        <v>776.3630235686835</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W25" t="n">
-        <v>486.9458535317229</v>
+        <v>619.9540936663861</v>
       </c>
       <c r="X25" t="n">
-        <v>486.9458535317229</v>
+        <v>619.9540936663861</v>
       </c>
       <c r="Y25" t="n">
-        <v>266.1532743881928</v>
+        <v>503.5547239186418</v>
       </c>
     </row>
     <row r="26">
@@ -6221,7 +6221,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6239,19 +6239,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,7 +6260,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147083</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211725</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1517.99338900868</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>412.2823606383756</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C28" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D28" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404653</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1178.955235002386</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.210845262961</v>
+        <v>1178.955235002386</v>
       </c>
       <c r="V28" t="n">
-        <v>820.5263570570741</v>
+        <v>924.2707467964987</v>
       </c>
       <c r="W28" t="n">
-        <v>820.5263570570741</v>
+        <v>924.2707467964987</v>
       </c>
       <c r="X28" t="n">
-        <v>593.9308254686154</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="Y28" t="n">
-        <v>593.9308254686154</v>
+        <v>696.2811958984813</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701562</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L30" t="n">
-        <v>1163.495507227045</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M30" t="n">
-        <v>1470.815640507007</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059517</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6625,7 +6625,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6713,13 +6713,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>846.912770472595</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6856,31 +6856,31 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649697</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6941,7 +6941,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6956,31 +6956,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L36" t="n">
-        <v>901.6749225845922</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977054</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1999.905696641086</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2279.445761859783</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083195</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504503</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.529509210312</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,37 +7108,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045198</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,28 +7172,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,13 +7239,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,22 +7254,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.59991596447</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183167</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
         <v>559.3441472229674</v>
@@ -7321,22 +7321,22 @@
         <v>320.8847398504515</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103132</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,22 +7351,22 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7406,55 +7406,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L42" t="n">
-        <v>901.6749225845922</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864554</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1538.857683528587</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1818.397748747284</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7555,22 +7555,22 @@
         <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7658,16 +7658,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341675</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1725.96990386717</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2005.509969085867</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
         <v>559.3441472229673</v>
@@ -7789,10 +7789,10 @@
         <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7807,25 +7807,25 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>199.7396287231155</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>199.6230805871088</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>199.6230805871097</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>283.6093329825484</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,16 +9717,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.872441903932</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,28 +9954,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>223.6742649934467</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>43.65987261462408</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>5.10066308935933</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>52.49733361305243</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504486</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>180.0237016735864</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627456</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>297.3877236703341</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119823</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,19 +11373,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>94.13752431970539</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>82.79655480066413</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,13 +22756,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>173.2633437802946</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>33.62039215042984</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>10.91730908348501</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>145.4227472489548</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>70.86937389287198</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>103.2334293798672</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23941,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>203.2884232305751</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>136.3592844838893</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>33.55325026999137</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,13 +24133,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>28.50975859063512</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24364,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>44.59484226146748</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>103.3492773018279</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>212.6712982458235</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>1.380079116463065</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1258421.929126101</v>
+        <v>1258421.9291261</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1258421.9291261</v>
+        <v>1258421.929126101</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1258421.9291261</v>
+        <v>1258421.929126101</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1258421.9291261</v>
+        <v>1258421.929126101</v>
       </c>
     </row>
     <row r="11">
@@ -26314,13 +26314,13 @@
         <v>122046.641203581</v>
       </c>
       <c r="C2" t="n">
+        <v>123156.2654796424</v>
+      </c>
+      <c r="D2" t="n">
         <v>123156.2654796425</v>
       </c>
-      <c r="D2" t="n">
-        <v>123156.2654796424</v>
-      </c>
       <c r="E2" t="n">
-        <v>117308.7179213125</v>
+        <v>117308.7179213126</v>
       </c>
       <c r="F2" t="n">
         <v>117308.7179213126</v>
@@ -26332,7 +26332,7 @@
         <v>117308.7179213126</v>
       </c>
       <c r="I2" t="n">
-        <v>117308.7179213125</v>
+        <v>117308.7179213126</v>
       </c>
       <c r="J2" t="n">
         <v>117308.7179213125</v>
@@ -26350,10 +26350,10 @@
         <v>123156.2654796425</v>
       </c>
       <c r="O2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="P2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
     </row>
     <row r="3">
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371242</v>
+        <v>54505.51210371256</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.396066964953207e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371259</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143694.8020290736</v>
+        <v>143694.8020290737</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
+        <v>7916.731656007518</v>
+      </c>
+      <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007485</v>
-      </c>
       <c r="H4" t="n">
-        <v>7916.731656007421</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007423</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007395</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="K4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732787</v>
+        <v>30335.51889732802</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732798</v>
       </c>
     </row>
     <row r="5">
@@ -26467,31 +26467,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
@@ -26506,7 +26506,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-694475.1181034466</v>
+        <v>-694493.6118413811</v>
       </c>
       <c r="C6" t="n">
         <v>-107619.8612996878</v>
       </c>
       <c r="D6" t="n">
-        <v>-107619.8612996879</v>
+        <v>-107619.8612996878</v>
       </c>
       <c r="E6" t="n">
-        <v>-507755.3761603077</v>
+        <v>-507852.8352862798</v>
       </c>
       <c r="F6" t="n">
-        <v>17404.66031658844</v>
+        <v>17307.20119061628</v>
       </c>
       <c r="G6" t="n">
-        <v>17404.6603165885</v>
+        <v>17307.20119061628</v>
       </c>
       <c r="H6" t="n">
-        <v>17404.66031658837</v>
+        <v>17307.20119061635</v>
       </c>
       <c r="I6" t="n">
-        <v>17404.66031658843</v>
+        <v>17307.20119061635</v>
       </c>
       <c r="J6" t="n">
-        <v>-159018.5588760045</v>
+        <v>-159116.0180019767</v>
       </c>
       <c r="K6" t="n">
-        <v>-59399.87134142326</v>
+        <v>-59399.87134142339</v>
       </c>
       <c r="L6" t="n">
-        <v>-4894.359237710843</v>
+        <v>-4894.359237710814</v>
       </c>
       <c r="M6" t="n">
         <v>-139695.374471548</v>
       </c>
       <c r="N6" t="n">
-        <v>-4894.359237710873</v>
+        <v>-4894.359237710843</v>
       </c>
       <c r="O6" t="n">
         <v>-4894.359237710829</v>
       </c>
       <c r="P6" t="n">
-        <v>-59399.87134142342</v>
+        <v>-59399.87134142339</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964071</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="L2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964061</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26741,43 +26741,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26805,13 +26805,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26826,7 +26826,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964074</v>
       </c>
     </row>
     <row r="3">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>292.0781938412734</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>140.4694284410414</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27588,13 +27588,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>119.6474726861205</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>218.5172511733982</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>321.1885376455394</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>163.1867408599419</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>120.2995522448414</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>52.00950628755089</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>121.3696613861188</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>263.3074905272761</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85.19271039829675</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>20.11844919287331</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,37 +32947,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>510.1640057735818</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299096</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>510.0474576375751</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>350.1985191750489</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>532.8670379385728</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>246.8854746890061</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>534.0986420439132</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>621.6037559756878</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>376.854446012637</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37005,7 +37005,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>315.5250401398257</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,10 +37400,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>259.5907485445772</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>513.2182750715994</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520624</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502436</v>
@@ -37719,7 +37719,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>384.9870895382562</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>504.4811386018588</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>427.3320977177183</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
